--- a/data/long_dif/P24_8-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_8-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,88</t>
+          <t>9,62; 17,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,62</t>
+          <t>7,21; 13,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 14,44</t>
+          <t>8,14; 13,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,89; 25,31</t>
+          <t>9,0; 17,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 18,26</t>
+          <t>9,51; 17,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 18,73</t>
+          <t>18,27; 25,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,07</t>
+          <t>11,47; 18,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 14,85</t>
+          <t>12,71; 18,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,51</t>
+          <t>13,8; 21,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,41; 25,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 20,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 14,86</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 15,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 17,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 20,43</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,01%</t>
+          <t>79,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>80,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>67,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,99%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>65,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>73,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>70,4%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>60,49%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,41; 81,5</t>
+          <t>72,33; 81,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,52; 82,96</t>
+          <t>75,2; 83,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,84; 83,59</t>
+          <t>76,45; 83,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,4; 69,77</t>
+          <t>69,37; 80,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,69; 73,25</t>
+          <t>61,58; 74,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,09; 70,8</t>
+          <t>60,61; 68,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,1; 74,04</t>
+          <t>65,43; 73,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,24; 77,11</t>
+          <t>63,17; 70,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,26; 75,63</t>
+          <t>60,75; 70,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47,9; 58,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>67,73; 73,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71,09; 77,02</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>70,5; 75,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>66,9; 73,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>56,23; 64,24</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,0</t>
+          <t>7,57; 12,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,5</t>
+          <t>8,01; 13,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 12,22</t>
+          <t>7,2; 12,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 16,14</t>
+          <t>8,5; 16,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,29</t>
+          <t>13,74; 25,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 20,38</t>
+          <t>10,61; 16,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,61</t>
+          <t>12,99; 19,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,98</t>
+          <t>14,57; 20,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 15,56</t>
+          <t>13,83; 21,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,98; 30,96</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 13,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 15,81</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 15,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 17,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 26,18</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 14,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 11,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 25,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 21,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 18,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,64%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,58; 86,35</t>
+          <t>9,21; 15,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,64; 83,98</t>
+          <t>5,54; 11,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,9; 79,64</t>
+          <t>10,13; 18,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,55; 71,83</t>
+          <t>8,32; 18,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,89; 73,53</t>
+          <t>5,74; 20,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,12; 72,45</t>
+          <t>16,89; 26,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,7</t>
+          <t>14,12; 21,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,15; 77,74</t>
+          <t>11,6; 19,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,47; 75,3</t>
+          <t>15,47; 25,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 26,93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 19,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 15,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 17,28</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 20,24</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 20,27</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>72,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>61,39%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60,01%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73,13%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>73,76%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>71,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>67,56%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>66,45%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,47</t>
+          <t>76,82; 84,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,55; 17,5</t>
+          <t>73,46; 83,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 15,84</t>
+          <t>69,32; 78,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 16,52</t>
+          <t>66,94; 79,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,39; 18,52</t>
+          <t>61,81; 81,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,78</t>
+          <t>60,01; 70,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 12,15</t>
+          <t>62,63; 73,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,41; 16,72</t>
+          <t>62,8; 72,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 16,86</t>
+          <t>55,58; 66,83</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50,27; 69,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,6; 76,74</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>69,92; 77,3</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>67,51; 74,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>62,62; 71,33</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>59,34; 73,31</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,3; 37,66</t>
+          <t>4,66; 9,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,64</t>
+          <t>8,88; 17,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,74</t>
+          <t>9,08; 15,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,61; 23,1</t>
+          <t>9,36; 18,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 19,47</t>
+          <t>10,13; 25,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 22,97</t>
+          <t>10,05; 17,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 27,0</t>
+          <t>10,28; 18,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 14,58</t>
+          <t>14,25; 21,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,22</t>
+          <t>14,53; 23,11</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 30,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 12,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 17,0</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12,55; 17,4</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 19,72</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 24,79</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>75,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,45; 88,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74,15; 90,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,02; 87,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,65; 79,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,94; 77,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>57,69; 74,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>65,79; 81,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>69,23; 81,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>67,75; 78,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>9,74%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>14,06%</t>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 14,39</t>
+          <t>6,71; 44,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,97; 17,31</t>
+          <t>3,76; 16,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 16,02</t>
+          <t>5,35; 17,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,27; 19,86</t>
+          <t>3,31; 21,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,18; 28,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,76; 25,7</t>
+          <t>9,61; 23,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,45; 14,58</t>
+          <t>6,49; 19,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,55; 20,38</t>
+          <t>9,91; 22,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,27; 19,27</t>
+          <t>15,31; 33,01</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 28,69</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 14,75</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 17,35</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 23,22</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>66,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>62,8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>73,66%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>75,86%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>73,47%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>65,95%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,89</t>
+          <t>53,56; 85,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,35</t>
+          <t>72,24; 89,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,0</t>
+          <t>71,82; 86,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,66; 22,94</t>
+          <t>43,98; 83,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,31; 18,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,26; 17,36</t>
+          <t>62,54; 79,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,32</t>
+          <t>60,34; 78,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,74; 13,86</t>
+          <t>57,96; 74,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,02; 14,99</t>
+          <t>52,44; 73,14</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>61,95; 80,05</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>68,92; 81,72</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>67,3; 78,56</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>53,98; 74,59</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>77,96%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>75,83; 82,32</t>
+          <t>3,38; 15,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>76,56; 82,52</t>
+          <t>5,18; 18,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>75,16; 80,61</t>
+          <t>5,62; 16,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>63,81; 69,83</t>
+          <t>7,76; 48,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>65,9; 72,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>64,55; 70,15</t>
+          <t>7,8; 21,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>71,06; 75,51</t>
+          <t>11,59; 26,85</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>72,03; 76,44</t>
+          <t>11,78; 25,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>70,63; 74,49</t>
+          <t>7,65; 23,0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 15,38</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 20,6</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 19,36</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 31,88</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,24; 11,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>12,42; 15,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 16,74</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 11,39</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 14,32</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 15,76</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 16,49</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 23,7</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 17,81</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 17,53</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 21,99</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>17,61; 24,74</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 18,89</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 13,97</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 15,26</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 18,01</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 19,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>78,59%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>79,69%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>77,77%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>74,06%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>68,91%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>65,88%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>69,0%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>67,23%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>63,7%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>72,08%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>74,21%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>72,38%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>68,76%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>61,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>74,7; 81,6</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>76,35; 82,51</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>74,72; 80,37</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>69,27; 77,9</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>63,01; 73,59</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>62,66; 68,78</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>65,87; 71,91</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>64,36; 69,56</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 67,25</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>50,19; 59,51</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>69,69; 74,1</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>71,89; 76,39</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>70,31; 74,25</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>65,98; 71,5</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>58,05; 65,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 10,47</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 14,14</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 12,69</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 18,19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 23,96</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 15,7</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 18,48</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>15,52; 19,99</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 20,17</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,6; 28,77</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 12,51</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 15,32</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 15,7</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 18,1</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>18,52; 25,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_8-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_8-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
